--- a/history.xlsx
+++ b/history.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2831,6 +2831,195 @@
       </c>
       <c r="O40" t="inlineStr"/>
     </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>02.19</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>56386</v>
+      </c>
+      <c r="D41" t="n">
+        <v>74675</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2121</v>
+      </c>
+      <c r="F41" t="n">
+        <v>16168</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>4922</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1277</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>45027</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1585</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>5448</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>02.20</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>55488</v>
+      </c>
+      <c r="D42" t="n">
+        <v>75993</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2239</v>
+      </c>
+      <c r="F42" t="n">
+        <v>18266</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>5206</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1614</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>45346</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1684</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>5598</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>02.21</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>53371</v>
+      </c>
+      <c r="D43" t="n">
+        <v>76392</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2348</v>
+      </c>
+      <c r="F43" t="n">
+        <v>20673</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>5365</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1361</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>45660</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1774</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>6334</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/history.xlsx
+++ b/history.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,40 +399,50 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>cn_econNum</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>cn_heconNum</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>cn_deathRate</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cn_cureRate</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>is_show</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>wjw_susNum</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>wuhan_conNum</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>wuhan_deathNum</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>wuhan_cureNum</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>wuhan_susNum</t>
         </is>
@@ -460,38 +470,40 @@
         <v>2</v>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>4.88</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -515,38 +527,40 @@
         <v>6</v>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>14.63</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -570,38 +584,40 @@
         <v>7</v>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>17.07</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -625,38 +641,40 @@
         <v>7</v>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>17.07</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -680,38 +698,40 @@
         <v>7</v>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>17.07</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -735,38 +755,40 @@
         <v>7</v>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>4.44</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>15.56</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -790,38 +812,40 @@
         <v>19</v>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>3.23</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>30.65</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -845,38 +869,40 @@
         <v>24</v>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
         <is>
           <t>2.48</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>19.83</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -900,38 +926,40 @@
         <v>25</v>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
         <is>
           <t>2.02</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>12.63</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>198</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -959,42 +987,44 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>2.33</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>9.69</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1022,42 +1052,44 @@
           <t>91</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
         <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>5.68</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>303</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1085,42 +1117,44 @@
           <t>348</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
         <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>5.25</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>257</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>365</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1148,42 +1182,44 @@
           <t>1072</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
         <is>
           <t>3.01</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>257</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1211,42 +1247,44 @@
           <t>1965</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
         <is>
           <t>3.19</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>2.95</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>680</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>572</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1274,42 +1312,44 @@
           <t>2684</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
         <is>
           <t>2.84</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>2.48</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>1309</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>618</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1337,42 +1377,44 @@
           <t>5794</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
         <is>
           <t>2.92</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>1.86</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>3806</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>698</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1400,42 +1442,44 @@
           <t>6973</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
         <is>
           <t>2.35</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>1.33</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>2077</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>1590</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>85</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1463,42 +1507,44 @@
           <t>9239</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
         <is>
           <t>2.21</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>1.72</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>3248</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>1905</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>75</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1526,42 +1572,44 @@
           <t>12167</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
         <is>
           <t>2.2</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>1.6</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>4148</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2261</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>129</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>82</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1589,42 +1637,44 @@
           <t>15238</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
         <is>
           <t>2.19</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>1.76</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>4812</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2639</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>103</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1652,42 +1702,44 @@
           <t>17988</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
         <is>
           <t>2.19</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>5019</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>3215</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>192</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>139</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1715,42 +1767,44 @@
           <t>19544</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
         <is>
           <t>2.11</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>2.28</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>4562</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>4109</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>171</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1778,42 +1832,44 @@
           <t>21558</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
         <is>
           <t>2.09</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>2.76</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>5173</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>5142</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>265</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>215</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1841,42 +1897,44 @@
           <t>23214</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
         <is>
           <t>2.08</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>3.09</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>5072</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>6384</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>317</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1904,42 +1962,44 @@
           <t>23260</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
         <is>
           <t>2.02</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>3.66</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>3971</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>8351</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>362</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>368</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1967,42 +2027,44 @@
           <t>24702</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
         <is>
           <t>2.01</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>4.11</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>5328</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>10117</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>431</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2030,42 +2092,44 @@
           <t>26359</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
         <is>
           <t>2.04</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>4.94</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>4833</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>11618</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>478</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>459</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2093,42 +2157,44 @@
           <t>27657</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
         <is>
           <t>2.09</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>5.93</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>4214</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>13603</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>545</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>698</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2156,42 +2222,44 @@
           <t>28942</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
         <is>
           <t>2.18</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>7.12</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>3916</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>14982</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>608</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>747</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2219,42 +2287,44 @@
           <t>23589</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
         <is>
           <t>2.26</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>8.16</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>4008</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>16902</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>681</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>879</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2282,42 +2352,44 @@
           <t>21675</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
         <is>
           <t>2.38</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>9.36</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>3536</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>18454</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>748</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>1052</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2345,42 +2417,44 @@
           <t>16067</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
         <is>
           <t>2.49</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>10.6</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>3342</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>19558</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>820</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>1242</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2408,42 +2482,44 @@
           <t>13485</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
         <is>
           <t>2.28</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>9.88</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>2807</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>32994</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>1036</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>1380</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2471,42 +2547,44 @@
           <t>10109</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
         <is>
           <t>2.16</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>10.52</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>2450</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>32959</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>1016</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>2585</t>
         </is>
@@ -2538,42 +2616,44 @@
           <t>8969</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
         <is>
           <t>2.29</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>12.17</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>2277</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>37914</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>1123</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2601,42 +2681,44 @@
           <t>8228</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
         <is>
           <t>2.43</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>13.74</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>1918</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>39462</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>1233</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>2915</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>2168</t>
         </is>
@@ -2668,42 +2750,44 @@
           <t>7264</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
         <is>
           <t>2.51</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>15.36</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>1563</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>41152</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>1309</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>2925</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2731,42 +2815,44 @@
           <t>6242</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
         <is>
           <t>2.58</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>17.32</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>1432</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>42752</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>1381</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>3507</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2794,42 +2880,44 @@
           <t>5248</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
         <is>
           <t>2.7</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>19.37</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>1185</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>44412</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>1497</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>4895</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2857,42 +2945,44 @@
           <t>4922</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
         <is>
           <t>2.84</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>21.65</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>1277</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>45027</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>1585</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>5448</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2920,42 +3010,44 @@
           <t>5206</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
         <is>
           <t>2.95</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>24.04</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>1614</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>45346</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>1684</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>5598</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>6214</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2983,42 +3075,563 @@
           <t>5365</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
         <is>
           <t>3.07</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>27.06</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>1361</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="N43" t="inlineStr">
         <is>
           <t>45660</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>1774</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>6334</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>7206</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>02.22</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>51494</v>
+      </c>
+      <c r="D44" t="n">
+        <v>76846</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2445</v>
+      </c>
+      <c r="F44" t="n">
+        <v>22907</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>4148</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>46201</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1856</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>8171</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>02.23</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>49910</v>
+      </c>
+      <c r="D45" t="n">
+        <v>77262</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2595</v>
+      </c>
+      <c r="F45" t="n">
+        <v>24757</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>49910</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>9915</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>35674</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>8946</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>02.24</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>47760</v>
+      </c>
+      <c r="D46" t="n">
+        <v>77779</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2666</v>
+      </c>
+      <c r="F46" t="n">
+        <v>27353</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2824</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>47760</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>9126</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>35.17</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>47071</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>2043</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>10337</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>02.25</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>45697</v>
+      </c>
+      <c r="D47" t="n">
+        <v>78190</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2718</v>
+      </c>
+      <c r="F47" t="n">
+        <v>29775</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2491</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>45697</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>8752</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>38.08</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>47441</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2085</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>11793</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>02.26</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>43352</v>
+      </c>
+      <c r="D48" t="n">
+        <v>78630</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2747</v>
+      </c>
+      <c r="F48" t="n">
+        <v>32531</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2358</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>43352</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>41.37</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>47824</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>13328</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>02.27</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>40011</v>
+      </c>
+      <c r="D49" t="n">
+        <v>78959</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2791</v>
+      </c>
+      <c r="F49" t="n">
+        <v>36157</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2308</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>40011</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>7952</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>48137</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>15826</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>1488</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>02.28</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>37502</v>
+      </c>
+      <c r="D50" t="n">
+        <v>79389</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2838</v>
+      </c>
+      <c r="F50" t="n">
+        <v>39049</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1418</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>37502</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>7664</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>49.19</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>48557</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>2169</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>17552</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/history.xlsx
+++ b/history.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>wuhan_susNum</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>cn_conadd</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -458,7 +463,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
         <v>41</v>
@@ -467,11 +472,17 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>2.44</t>
@@ -479,7 +490,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>14.63</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -504,6 +515,11 @@
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -527,8 +543,14 @@
         <v>6</v>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>2.44</t>
@@ -561,6 +583,11 @@
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -584,8 +611,14 @@
         <v>7</v>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>2.44</t>
@@ -618,6 +651,11 @@
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -641,8 +679,14 @@
         <v>7</v>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>2.44</t>
@@ -675,6 +719,11 @@
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -698,8 +747,14 @@
         <v>7</v>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>2.44</t>
@@ -732,6 +787,11 @@
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -755,8 +815,14 @@
         <v>7</v>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>4.44</t>
@@ -789,6 +855,11 @@
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -812,8 +883,14 @@
         <v>19</v>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>3.23</t>
@@ -846,6 +923,11 @@
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -869,8 +951,14 @@
         <v>24</v>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>2.48</t>
@@ -903,6 +991,11 @@
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -926,8 +1019,14 @@
         <v>25</v>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>2.02</t>
@@ -960,6 +1059,11 @@
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -987,8 +1091,14 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>2.33</t>
@@ -1025,6 +1135,11 @@
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1052,8 +1167,14 @@
           <t>91</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>2.05</t>
@@ -1090,6 +1211,11 @@
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1117,8 +1243,14 @@
           <t>348</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>2.98</t>
@@ -1155,6 +1287,11 @@
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1182,8 +1319,14 @@
           <t>1072</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>3.01</t>
@@ -1220,6 +1363,11 @@
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1247,8 +1395,14 @@
           <t>1965</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>3.19</t>
@@ -1285,6 +1439,11 @@
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1312,8 +1471,14 @@
           <t>2684</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1870</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>2.84</t>
@@ -1350,6 +1515,11 @@
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1377,8 +1547,14 @@
           <t>5794</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2613</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>2.92</t>
@@ -1415,6 +1591,11 @@
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1442,8 +1623,14 @@
           <t>6973</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>2.35</t>
@@ -1480,6 +1667,11 @@
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>1771</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1507,8 +1699,14 @@
           <t>9239</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>5739</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>2.21</t>
@@ -1545,6 +1743,11 @@
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1572,8 +1775,14 @@
           <t>12167</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>7442</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>2.2</t>
@@ -1610,6 +1819,11 @@
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>1762</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1637,8 +1851,14 @@
           <t>15238</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>9336</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>2.19</t>
@@ -1675,6 +1895,11 @@
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1702,8 +1927,14 @@
           <t>17988</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>11319</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>2.19</t>
@@ -1740,6 +1971,11 @@
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>2101</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1767,8 +2003,14 @@
           <t>19544</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>13779</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>2.11</t>
@@ -1805,6 +2047,11 @@
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>2590</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1832,8 +2079,14 @@
           <t>21558</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>16402</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>2.09</t>
@@ -1870,6 +2123,11 @@
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>2827</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1897,8 +2155,14 @@
           <t>23214</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>19414</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>2.08</t>
@@ -1935,6 +2199,11 @@
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>3233</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1962,8 +2231,14 @@
           <t>23260</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>22980</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>2.02</t>
@@ -2000,6 +2275,11 @@
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>3892</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2027,8 +2307,14 @@
           <t>24702</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>26343</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>2.01</t>
@@ -2065,6 +2351,11 @@
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>3697</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2092,8 +2383,14 @@
           <t>26359</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>29032</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>2.04</t>
@@ -2130,6 +2427,11 @@
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>3151</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2157,8 +2459,14 @@
           <t>27657</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>31823</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>2.09</t>
@@ -2195,6 +2503,11 @@
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>3387</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2222,8 +2535,14 @@
           <t>28942</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>33788</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>2.18</t>
@@ -2260,6 +2579,11 @@
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>2653</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2287,8 +2611,14 @@
           <t>23589</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>36043</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>2.26</t>
@@ -2325,6 +2655,11 @@
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>2984</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2352,8 +2687,14 @@
           <t>21675</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>37693</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>2.38</t>
@@ -2390,6 +2731,11 @@
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>2473</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2417,8 +2763,14 @@
           <t>16067</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>38874</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
           <t>2.49</t>
@@ -2455,6 +2807,11 @@
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2482,8 +2839,14 @@
           <t>13485</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>52599</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
           <t>2.28</t>
@@ -2520,6 +2883,11 @@
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>15152</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2547,8 +2915,14 @@
           <t>10109</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>55823</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
           <t>2.16</t>
@@ -2587,6 +2961,11 @@
       <c r="Q35" t="inlineStr">
         <is>
           <t>2585</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>4050</t>
         </is>
       </c>
     </row>
@@ -2616,8 +2995,14 @@
           <t>8969</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>56951</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>2.29</t>
@@ -2654,6 +3039,11 @@
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>2644</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2681,8 +3071,14 @@
           <t>8228</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>57493</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
           <t>2.43</t>
@@ -2721,6 +3117,11 @@
       <c r="Q37" t="inlineStr">
         <is>
           <t>2168</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>2008</t>
         </is>
       </c>
     </row>
@@ -2750,8 +3151,14 @@
           <t>7264</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>58010</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
           <t>2.51</t>
@@ -2788,6 +3195,11 @@
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2815,8 +3227,14 @@
           <t>6242</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>58097</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>2.58</t>
@@ -2853,6 +3271,11 @@
         </is>
       </c>
       <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>1893</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2880,8 +3303,14 @@
           <t>5248</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>57886</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>2.7</t>
@@ -2918,6 +3347,11 @@
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2945,8 +3379,14 @@
           <t>4922</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>56386</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>2.84</t>
@@ -2983,6 +3423,11 @@
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3010,8 +3455,14 @@
           <t>5206</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>55488</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" t="inlineStr">
         <is>
           <t>2.95</t>
@@ -3048,6 +3499,11 @@
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>1318</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3075,8 +3531,14 @@
           <t>5365</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>53371</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
           <t>3.07</t>
@@ -3113,6 +3575,11 @@
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3140,8 +3607,14 @@
           <t>4148</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>51494</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
           <t>3.18</t>
@@ -3178,6 +3651,11 @@
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3255,6 +3733,11 @@
           <t>318</t>
         </is>
       </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3328,6 +3811,11 @@
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3401,6 +3889,11 @@
         </is>
       </c>
       <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3478,6 +3971,11 @@
           <t>1459</t>
         </is>
       </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3555,6 +4053,11 @@
           <t>1488</t>
         </is>
       </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3630,6 +4133,1241 @@
       <c r="Q50" t="inlineStr">
         <is>
           <t>788</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>02.29</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>35420</v>
+      </c>
+      <c r="D51" t="n">
+        <v>79968</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2873</v>
+      </c>
+      <c r="F51" t="n">
+        <v>41675</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>35420</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>7365</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>52.11</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>49122</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>2195</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>19227</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>03.01</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>32741</v>
+      </c>
+      <c r="D52" t="n">
+        <v>80174</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2915</v>
+      </c>
+      <c r="F52" t="n">
+        <v>44518</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>32741</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>7110</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>55.53</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>49122</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>2195</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>19576</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>03.02</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>30096</v>
+      </c>
+      <c r="D53" t="n">
+        <v>80302</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2946</v>
+      </c>
+      <c r="F53" t="n">
+        <v>47260</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>30096</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>6806</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>58.85</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>49315</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>2803</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>33934</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>03.03</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>27524</v>
+      </c>
+      <c r="D54" t="n">
+        <v>80422</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2984</v>
+      </c>
+      <c r="F54" t="n">
+        <v>49914</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>27524</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>6416</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>62.07</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>49426</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>2835</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>36208</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>03.04</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>25441</v>
+      </c>
+      <c r="D55" t="n">
+        <v>80565</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3015</v>
+      </c>
+      <c r="F55" t="n">
+        <v>52109</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>25441</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>5952</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>64.68</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>49671</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>26316</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>03.05</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>23872</v>
+      </c>
+      <c r="D56" t="n">
+        <v>80710</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3045</v>
+      </c>
+      <c r="F56" t="n">
+        <v>53793</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>23872</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>5737</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>66.65</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>49797</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2328</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>27354</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>03.06</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>22263</v>
+      </c>
+      <c r="D57" t="n">
+        <v>80813</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3073</v>
+      </c>
+      <c r="F57" t="n">
+        <v>55477</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>22263</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>5489</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>49871</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>2349</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>28511</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>03.07</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>20616</v>
+      </c>
+      <c r="D58" t="n">
+        <v>80859</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F58" t="n">
+        <v>57143</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>20616</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>70.67</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>49912</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>2370</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>29770</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>03.08</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>19097</v>
+      </c>
+      <c r="D59" t="n">
+        <v>80904</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3123</v>
+      </c>
+      <c r="F59" t="n">
+        <v>58684</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>19097</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>5116</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>49948</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>2388</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>30933</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>03.09</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>17802</v>
+      </c>
+      <c r="D60" t="n">
+        <v>80924</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3140</v>
+      </c>
+      <c r="F60" t="n">
+        <v>59982</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>17802</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>4794</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>49965</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2404</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>31829</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>03.10</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>16226</v>
+      </c>
+      <c r="D61" t="n">
+        <v>80955</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3162</v>
+      </c>
+      <c r="F61" t="n">
+        <v>61567</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>16226</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>49978</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>2423</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>33041</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>03.11</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>14920</v>
+      </c>
+      <c r="D62" t="n">
+        <v>80980</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3173</v>
+      </c>
+      <c r="F62" t="n">
+        <v>62887</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>14920</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>49986</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>2430</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>34094</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>03.12</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>13607</v>
+      </c>
+      <c r="D63" t="n">
+        <v>81003</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3180</v>
+      </c>
+      <c r="F63" t="n">
+        <v>64216</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>13607</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>4020</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>49991</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>35197</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>03.13</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>12178</v>
+      </c>
+      <c r="D64" t="n">
+        <v>81021</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3194</v>
+      </c>
+      <c r="F64" t="n">
+        <v>65649</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>12178</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>3610</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>49995</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>2446</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>36451</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>03.14</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>10822</v>
+      </c>
+      <c r="D65" t="n">
+        <v>81048</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3204</v>
+      </c>
+      <c r="F65" t="n">
+        <v>67022</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>10822</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>3226</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>49999</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>2456</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>37632</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>27</t>
         </is>
       </c>
     </row>
